--- a/APM files/139675497/139675497 IMPORT 4 Shell.xlsx
+++ b/APM files/139675497/139675497 IMPORT 4 Shell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/139675497/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\139675497\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4944D7B5-EE5C-314E-B763-A22161C19002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAA12DA-C1A9-4847-8F9B-5D826B27F79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{1A9A55E1-6AAB-41A4-909E-07C64B877054}"/>
+    <workbookView xWindow="2430" yWindow="2175" windowWidth="28800" windowHeight="15345" xr2:uid="{1A9A55E1-6AAB-41A4-909E-07C64B877054}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4019,77 +4019,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E786E6-8851-4D9D-B21E-5F9E4E4F9EFB}">
   <dimension ref="A1:BJ362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="21" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="27" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>84</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>84</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>84</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>84</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>84</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>84</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>84</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>84</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>84</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>84</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>84</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>84</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>84</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>84</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>84</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>84</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>84</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>84</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>84</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>84</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>84</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>84</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>84</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>84</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>84</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>84</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>84</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>84</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>84</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>84</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>84</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>84</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>84</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>84</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>84</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>84</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -17804,7 +17804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>84</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>84</v>
       </c>
@@ -18973,7 +18973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>84</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
@@ -19307,7 +19307,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>84</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>84</v>
       </c>
@@ -19641,7 +19641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>84</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>84</v>
       </c>
@@ -19975,7 +19975,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>84</v>
       </c>
@@ -20142,7 +20142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>84</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>84</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>84</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>84</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>84</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>84</v>
       </c>
@@ -21144,7 +21144,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>84</v>
       </c>
@@ -21311,7 +21311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>84</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>84</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>84</v>
       </c>
@@ -21812,7 +21812,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>84</v>
       </c>
@@ -21979,7 +21979,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>84</v>
       </c>
@@ -22146,7 +22146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>84</v>
       </c>
@@ -22313,7 +22313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>84</v>
       </c>
@@ -22480,7 +22480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>84</v>
       </c>
@@ -22647,7 +22647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>84</v>
       </c>
@@ -22814,7 +22814,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>84</v>
       </c>
@@ -22981,7 +22981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="114" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>84</v>
       </c>
@@ -23148,7 +23148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>84</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>84</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>84</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>84</v>
       </c>
@@ -23816,7 +23816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>84</v>
       </c>
@@ -23983,7 +23983,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>84</v>
       </c>
@@ -24150,7 +24150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>84</v>
       </c>
@@ -24317,7 +24317,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>84</v>
       </c>
@@ -24484,7 +24484,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>84</v>
       </c>
@@ -24651,7 +24651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>84</v>
       </c>
@@ -24818,7 +24818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>84</v>
       </c>
@@ -24985,7 +24985,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>84</v>
       </c>
@@ -25152,7 +25152,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>84</v>
       </c>
@@ -25319,7 +25319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>84</v>
       </c>
@@ -25486,7 +25486,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>84</v>
       </c>
@@ -25653,7 +25653,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>84</v>
       </c>
@@ -25820,7 +25820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>84</v>
       </c>
@@ -25987,7 +25987,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>84</v>
       </c>
@@ -26154,7 +26154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="133" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>84</v>
       </c>
@@ -26321,7 +26321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>84</v>
       </c>
@@ -26488,7 +26488,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>84</v>
       </c>
@@ -26655,7 +26655,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="136" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>84</v>
       </c>
@@ -26822,7 +26822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="137" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>84</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>84</v>
       </c>
@@ -27156,7 +27156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>84</v>
       </c>
@@ -27323,7 +27323,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>84</v>
       </c>
@@ -27490,7 +27490,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>84</v>
       </c>
@@ -27657,7 +27657,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>84</v>
       </c>
@@ -27824,7 +27824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>84</v>
       </c>
@@ -27991,7 +27991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>84</v>
       </c>
@@ -28158,7 +28158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>84</v>
       </c>
@@ -28325,7 +28325,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>84</v>
       </c>
@@ -28492,7 +28492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>84</v>
       </c>
@@ -28659,7 +28659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>84</v>
       </c>
@@ -28826,7 +28826,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>84</v>
       </c>
@@ -28993,7 +28993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="150" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>84</v>
       </c>
@@ -29160,7 +29160,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>84</v>
       </c>
@@ -29327,7 +29327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>84</v>
       </c>
@@ -29494,7 +29494,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>84</v>
       </c>
@@ -29661,7 +29661,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>84</v>
       </c>
@@ -29828,7 +29828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>84</v>
       </c>
@@ -29995,7 +29995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>84</v>
       </c>
@@ -30162,7 +30162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>84</v>
       </c>
@@ -30329,7 +30329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>84</v>
       </c>
@@ -30496,7 +30496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>84</v>
       </c>
@@ -30663,7 +30663,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>84</v>
       </c>
@@ -30830,7 +30830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>84</v>
       </c>
@@ -30997,7 +30997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>84</v>
       </c>
@@ -31164,7 +31164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>84</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="164" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>84</v>
       </c>
@@ -31498,7 +31498,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>84</v>
       </c>
@@ -31665,7 +31665,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>84</v>
       </c>
@@ -31832,7 +31832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>84</v>
       </c>
@@ -31999,7 +31999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="168" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>84</v>
       </c>
@@ -32166,7 +32166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>84</v>
       </c>
@@ -32333,7 +32333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>84</v>
       </c>
@@ -32500,7 +32500,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="171" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>84</v>
       </c>
@@ -32667,7 +32667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="172" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>84</v>
       </c>
@@ -32834,7 +32834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>84</v>
       </c>
@@ -33001,7 +33001,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>84</v>
       </c>
@@ -33168,7 +33168,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="175" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>84</v>
       </c>
@@ -33335,7 +33335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>84</v>
       </c>
@@ -33502,7 +33502,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>84</v>
       </c>
@@ -33669,7 +33669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>84</v>
       </c>
@@ -33836,7 +33836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>84</v>
       </c>
@@ -34003,7 +34003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="180" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>84</v>
       </c>
@@ -34170,7 +34170,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="181" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>84</v>
       </c>
@@ -34337,7 +34337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="182" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>84</v>
       </c>
@@ -34504,7 +34504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="183" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>84</v>
       </c>
@@ -34671,7 +34671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="184" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>84</v>
       </c>
@@ -34838,7 +34838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="185" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>84</v>
       </c>
@@ -35005,7 +35005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>84</v>
       </c>
@@ -35172,7 +35172,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>84</v>
       </c>
@@ -35339,7 +35339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="188" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>84</v>
       </c>
@@ -35506,7 +35506,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>84</v>
       </c>
@@ -35673,7 +35673,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="190" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>84</v>
       </c>
@@ -35840,7 +35840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>84</v>
       </c>
@@ -36007,7 +36007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="192" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>84</v>
       </c>
@@ -36174,7 +36174,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="193" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>84</v>
       </c>
@@ -36341,7 +36341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>84</v>
       </c>
@@ -36508,7 +36508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="195" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>84</v>
       </c>
@@ -36675,7 +36675,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="196" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>84</v>
       </c>
@@ -36842,7 +36842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="197" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>84</v>
       </c>
@@ -37009,7 +37009,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="198" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>84</v>
       </c>
@@ -37176,7 +37176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="199" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>84</v>
       </c>
@@ -37343,7 +37343,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="200" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>84</v>
       </c>
@@ -37510,7 +37510,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="201" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>84</v>
       </c>
@@ -37677,7 +37677,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="202" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>84</v>
       </c>
@@ -37844,7 +37844,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>84</v>
       </c>
@@ -38011,7 +38011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="204" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>84</v>
       </c>
@@ -38178,7 +38178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>84</v>
       </c>
@@ -38345,7 +38345,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="206" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>84</v>
       </c>
@@ -38512,7 +38512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="207" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>84</v>
       </c>
@@ -38679,7 +38679,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="208" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>84</v>
       </c>
@@ -38846,7 +38846,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="209" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>84</v>
       </c>
@@ -39013,7 +39013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="210" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>84</v>
       </c>
@@ -39180,7 +39180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="211" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>84</v>
       </c>
@@ -39347,7 +39347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>84</v>
       </c>
@@ -39514,7 +39514,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="213" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>84</v>
       </c>
@@ -39681,7 +39681,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="214" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>84</v>
       </c>
@@ -39848,7 +39848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="215" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>84</v>
       </c>
@@ -40015,7 +40015,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="216" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>84</v>
       </c>
@@ -40182,7 +40182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>84</v>
       </c>
@@ -40349,7 +40349,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="218" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>84</v>
       </c>
@@ -40516,7 +40516,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="219" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>84</v>
       </c>
@@ -40683,7 +40683,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="220" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>84</v>
       </c>
@@ -40850,7 +40850,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="221" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>84</v>
       </c>
@@ -41017,7 +41017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="222" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>84</v>
       </c>
@@ -41184,7 +41184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>84</v>
       </c>
@@ -41351,7 +41351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="224" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>84</v>
       </c>
@@ -41518,7 +41518,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="225" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>84</v>
       </c>
@@ -41685,7 +41685,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="226" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>84</v>
       </c>
@@ -41852,7 +41852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="227" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>84</v>
       </c>
@@ -42019,7 +42019,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="228" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>84</v>
       </c>
@@ -42186,7 +42186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="229" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>84</v>
       </c>
@@ -42353,7 +42353,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="230" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>84</v>
       </c>
@@ -42520,7 +42520,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="231" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>84</v>
       </c>
@@ -42687,7 +42687,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="232" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>84</v>
       </c>
@@ -42854,7 +42854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="233" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>84</v>
       </c>
@@ -43021,7 +43021,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>84</v>
       </c>
@@ -43188,7 +43188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>84</v>
       </c>
@@ -43355,7 +43355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="236" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>84</v>
       </c>
@@ -43522,7 +43522,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="237" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>84</v>
       </c>
@@ -43689,7 +43689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="238" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>84</v>
       </c>
@@ -43856,7 +43856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="239" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>84</v>
       </c>
@@ -44023,7 +44023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="240" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>84</v>
       </c>
@@ -44190,7 +44190,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="241" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>84</v>
       </c>
@@ -44357,7 +44357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>84</v>
       </c>
@@ -44524,7 +44524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>84</v>
       </c>
@@ -44691,7 +44691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>84</v>
       </c>
@@ -44858,7 +44858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="245" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>84</v>
       </c>
@@ -45025,7 +45025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>84</v>
       </c>
@@ -45192,7 +45192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="247" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>84</v>
       </c>
@@ -45359,7 +45359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="248" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>84</v>
       </c>
@@ -45526,7 +45526,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="249" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>84</v>
       </c>
@@ -45693,7 +45693,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="250" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>84</v>
       </c>
@@ -45860,7 +45860,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="251" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>84</v>
       </c>
@@ -46027,7 +46027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="252" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>84</v>
       </c>
@@ -46194,7 +46194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="253" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>84</v>
       </c>
@@ -46361,7 +46361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="254" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>84</v>
       </c>
@@ -46528,7 +46528,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="255" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>84</v>
       </c>
@@ -46695,7 +46695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="256" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>84</v>
       </c>
@@ -46862,7 +46862,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="257" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>84</v>
       </c>
@@ -47029,7 +47029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="258" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>84</v>
       </c>
@@ -47196,7 +47196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="259" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>84</v>
       </c>
@@ -47363,7 +47363,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="260" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>84</v>
       </c>
@@ -47530,7 +47530,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>84</v>
       </c>
@@ -47697,7 +47697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="262" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>84</v>
       </c>
@@ -47864,7 +47864,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="263" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>84</v>
       </c>
@@ -48031,7 +48031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="264" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>84</v>
       </c>
@@ -48198,7 +48198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="265" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>84</v>
       </c>
@@ -48365,7 +48365,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="266" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>84</v>
       </c>
@@ -48532,7 +48532,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="267" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>84</v>
       </c>
@@ -48699,7 +48699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="268" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>84</v>
       </c>
@@ -48866,7 +48866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="269" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>84</v>
       </c>
@@ -49033,7 +49033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="270" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>84</v>
       </c>
@@ -49200,7 +49200,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="271" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>84</v>
       </c>
@@ -49367,7 +49367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="272" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>84</v>
       </c>
@@ -49534,7 +49534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="273" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>84</v>
       </c>
@@ -49701,7 +49701,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="274" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>84</v>
       </c>
@@ -49868,7 +49868,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="275" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>84</v>
       </c>
@@ -50035,7 +50035,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="276" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>84</v>
       </c>
@@ -50202,7 +50202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="277" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>84</v>
       </c>
@@ -50369,7 +50369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="278" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>84</v>
       </c>
@@ -50536,7 +50536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="279" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>84</v>
       </c>
@@ -50703,7 +50703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="280" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>84</v>
       </c>
@@ -50870,7 +50870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="281" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>84</v>
       </c>
@@ -51037,7 +51037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="282" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>84</v>
       </c>
@@ -51204,7 +51204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>84</v>
       </c>
@@ -51371,7 +51371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="284" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>84</v>
       </c>
@@ -51538,7 +51538,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="285" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>84</v>
       </c>
@@ -51705,7 +51705,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="286" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>84</v>
       </c>
@@ -51872,7 +51872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="287" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>84</v>
       </c>
@@ -52039,7 +52039,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="288" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>84</v>
       </c>
@@ -52206,7 +52206,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="289" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>84</v>
       </c>
@@ -52373,7 +52373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>84</v>
       </c>
@@ -52540,7 +52540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="291" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>84</v>
       </c>
@@ -52707,7 +52707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="292" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>84</v>
       </c>
@@ -52874,7 +52874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="293" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>84</v>
       </c>
@@ -53041,7 +53041,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="294" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>84</v>
       </c>
@@ -53208,7 +53208,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="295" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>84</v>
       </c>
@@ -53375,7 +53375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="296" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>84</v>
       </c>
@@ -53542,7 +53542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="297" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>84</v>
       </c>
@@ -53709,7 +53709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="298" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>84</v>
       </c>
@@ -53876,7 +53876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="299" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>84</v>
       </c>
@@ -54043,7 +54043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="300" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>84</v>
       </c>
@@ -54210,7 +54210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="301" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>84</v>
       </c>
@@ -54377,7 +54377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="302" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>84</v>
       </c>
@@ -54544,7 +54544,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="303" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>84</v>
       </c>
@@ -54711,7 +54711,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="304" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>84</v>
       </c>
@@ -54878,7 +54878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="305" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>84</v>
       </c>
@@ -55045,7 +55045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="306" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>84</v>
       </c>
@@ -55212,7 +55212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="307" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>84</v>
       </c>
@@ -55379,7 +55379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="308" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>84</v>
       </c>
@@ -55546,7 +55546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="309" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>84</v>
       </c>
@@ -55713,7 +55713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="310" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>84</v>
       </c>
@@ -55880,7 +55880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="311" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>84</v>
       </c>
@@ -56047,7 +56047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="312" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>84</v>
       </c>
@@ -56214,7 +56214,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="313" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>84</v>
       </c>
@@ -56381,7 +56381,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="314" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>84</v>
       </c>
@@ -56548,7 +56548,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="315" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>84</v>
       </c>
@@ -56715,7 +56715,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="316" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>84</v>
       </c>
@@ -56882,7 +56882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="317" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>84</v>
       </c>
@@ -57049,7 +57049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="318" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>84</v>
       </c>
@@ -57216,7 +57216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="319" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>84</v>
       </c>
@@ -57383,7 +57383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="320" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>84</v>
       </c>
@@ -57550,7 +57550,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="321" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>84</v>
       </c>
@@ -57717,7 +57717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="322" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>84</v>
       </c>
@@ -57884,7 +57884,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="323" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>84</v>
       </c>
@@ -58051,7 +58051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="324" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>84</v>
       </c>
@@ -58218,7 +58218,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="325" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>84</v>
       </c>
@@ -58385,7 +58385,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="326" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>84</v>
       </c>
@@ -58552,7 +58552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="327" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>84</v>
       </c>
@@ -58719,7 +58719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>84</v>
       </c>
@@ -58886,7 +58886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="329" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>84</v>
       </c>
@@ -59053,7 +59053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="330" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>84</v>
       </c>
@@ -59220,7 +59220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="331" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>84</v>
       </c>
@@ -59387,7 +59387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="332" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>84</v>
       </c>
@@ -59554,7 +59554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="333" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>84</v>
       </c>
@@ -59721,7 +59721,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="334" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>84</v>
       </c>
@@ -59888,7 +59888,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="335" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>84</v>
       </c>
@@ -60055,7 +60055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="336" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>84</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="337" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>84</v>
       </c>
@@ -60389,7 +60389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="338" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>84</v>
       </c>
@@ -60556,7 +60556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="339" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>84</v>
       </c>
@@ -60723,7 +60723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="340" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>84</v>
       </c>
@@ -60890,7 +60890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="341" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>84</v>
       </c>
@@ -61057,7 +61057,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="342" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>84</v>
       </c>
@@ -61224,7 +61224,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="343" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>84</v>
       </c>
@@ -61391,7 +61391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="344" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>84</v>
       </c>
@@ -61558,7 +61558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="345" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>84</v>
       </c>
@@ -61725,7 +61725,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="346" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>84</v>
       </c>
@@ -61892,7 +61892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="347" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>84</v>
       </c>
@@ -62059,7 +62059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="348" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>84</v>
       </c>
@@ -62226,7 +62226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="349" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>84</v>
       </c>
@@ -62393,7 +62393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="350" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>84</v>
       </c>
@@ -62560,7 +62560,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="351" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>84</v>
       </c>
@@ -62727,7 +62727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="352" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>84</v>
       </c>
@@ -62894,7 +62894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="353" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>84</v>
       </c>
@@ -63061,7 +63061,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="354" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>84</v>
       </c>
@@ -63228,7 +63228,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="355" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>84</v>
       </c>
@@ -63395,7 +63395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="356" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>84</v>
       </c>
@@ -63562,7 +63562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="357" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>84</v>
       </c>
@@ -63729,7 +63729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="358" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>84</v>
       </c>
@@ -63896,7 +63896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="359" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>84</v>
       </c>
@@ -64063,7 +64063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="360" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>84</v>
       </c>
@@ -64230,7 +64230,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="361" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>84</v>
       </c>
@@ -64397,7 +64397,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="362" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>84</v>
       </c>
